--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_178.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_178.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1277089783281734</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D'], ['D', 'E', 'A'], ['E', 'A', 'A'], ['D', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['D', 'E', 'A'], ['E/3', 'A', 'A'], ['D', 'D/7', 'A/3']]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.30541, 12.800013), (53.551034, 58.903233), (1.274255, 5.746892), (19.8821, 24.340331)]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.385936, 6.194008), (1.921537, 5.694779), (13.508294, 17.444076), (10.12979, 11.569428)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:02:20.860000', '0:02:24.100000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:05', '0:00:21.500000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:28.140000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:03', '0:00:05.280000'), ('0:00:00.700000', '0:00:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4076086956521739</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb/5', 'Ab'], ['Eb/5', 'Ab', 'Eb/3']]</t>
-        </is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1244019138755981</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['F', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(93.1817, 97.709591), (86.923922, 92.322562)]</t>
+          <t>[['C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.337709, 19.847823), (0.344657, 11.337709)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:37.610000', '0:00:38.900000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:50.604263', '0:00:57.976598')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_203</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1258223684210526</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(253.84, 257.6), (25.8, 29.46), (9.6, 13.3)]</t>
+          <t>[['G', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(67.76, 77.5), (40.38, 42.28), (88.48, 100.38)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:50.604263', '0:00:57.976598')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:55.397573', '0:01:00.285374')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_56</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08830455259026687</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['B:7', 'E', 'A/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:12.318208', '0:00:18.355396')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:45.712000', '0:00:51.648000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.203125</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36), (22.89, 24.46)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06), (54.26, 61.02)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.111969111969112</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G/3', 'A', 'G'], ['D', 'A', 'A/b7'], ['A', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Ab'], ['Eb', 'Bb', 'Bb'], ['Bb', 'Bb', 'Bb']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(221.793378, 229.908752), (26.08399, 30.414512), (36.173061, 41.86195)]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(52.204829, 57.324829), (22.297528, 25.374172), (0.440395, 6.879478)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(23.6, 28.92), (23.04, 26.52), (254.26, 257.98), (12.56, 17.2)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (9.26, 13.9), (44.2, 59.98), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:22.564557', '0:00:26.651269'), ('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_33</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03121917537975932</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Db:min7', 'Gb:7', 'Cb:maj7']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.6, 20.43)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.19, 5.12)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.26, 13.22)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1487804878048781</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/5', 'E/4', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'D']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.544, 9.34)]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.979342, 16.701519)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:01.800000', '0:01:09.440000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.9, 21.42)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(245.42, 263.44)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'A:min'], ['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min'], ['C:maj/E', 'G:7', 'C:maj'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.46, 47.16), (13.5, 21.9), (83.1, 90.02), (38.9, 44.36), (28.14, 36.1)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(35.7, 38.28), (12.56, 17.2), (23.04, 26.52), (40.64, 42.42), (7.84, 11.42)]</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1812434141201265</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'A#:maj', 'B:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'Eb', 'E', 'Eb']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(50.44, 54.6)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.99, 7.14)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68), (13.74, 16.3)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.48, 25.86), (9.14, 16.92)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01323174083685967</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.08, 23.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(53.25, 54.92)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
